--- a/Engineering/Reverse_Estim_2B/Components.xlsx
+++ b/Engineering/Reverse_Estim_2B/Components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\Learning\Altium\V_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\github_REPO\Engineering\Reverse_Estim_2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4BB69-6006-4BA1-AA4D-4D6C5769360F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF7E6B-096C-4784-8012-561E5819088B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="3" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
+    <workbookView xWindow="38280" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="13" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Stim" sheetId="13" r:id="rId1"/>
@@ -26,9 +26,13 @@
     <sheet name="SDiode" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId12"/>
     <sheet name="Encoders" sheetId="2" r:id="rId13"/>
-    <sheet name="Transfromator" sheetId="3" r:id="rId14"/>
+    <sheet name="Sygnal" sheetId="19" r:id="rId14"/>
+    <sheet name="Battery" sheetId="17" r:id="rId15"/>
+    <sheet name="ESP_32" sheetId="18" r:id="rId16"/>
+    <sheet name="Salary" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="261">
   <si>
     <t>GND</t>
   </si>
@@ -641,12 +645,210 @@
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>STC3115</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>DisplayTech 162B</t>
+  </si>
+  <si>
+    <t>16*2</t>
+  </si>
+  <si>
+    <t>Желательный PPI ~ 250-350</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>RM68140</t>
+  </si>
+  <si>
+    <t>ILI9488</t>
+  </si>
+  <si>
+    <t>800×480</t>
+  </si>
+  <si>
+    <t>Inch</t>
+  </si>
+  <si>
+    <t>480×320</t>
+  </si>
+  <si>
+    <t>RGB565</t>
+  </si>
+  <si>
+    <t>10-25fps</t>
+  </si>
+  <si>
+    <t>4-10fps</t>
+  </si>
+  <si>
+    <t>RGB + DMA + PSRAM</t>
+  </si>
+  <si>
+    <t>40-60fps</t>
+  </si>
+  <si>
+    <t>ILI9486</t>
+  </si>
+  <si>
+    <t>RA8875</t>
+  </si>
+  <si>
+    <t>Rectangle Bar RGB TTL TFT Display - 3.2"</t>
+  </si>
+  <si>
+    <t>ST7701S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST7701S </t>
+  </si>
+  <si>
+    <t>N16R8</t>
+  </si>
+  <si>
+    <t>N4R8</t>
+  </si>
+  <si>
+    <t>N4R2</t>
+  </si>
+  <si>
+    <t>PSRAM4</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>Octal PSRAM</t>
+  </si>
+  <si>
+    <t>max для SPI</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>RGB-666</t>
+  </si>
+  <si>
+    <t>расспиновка</t>
+  </si>
+  <si>
+    <t>40-Pin TFT Breakout</t>
+  </si>
+  <si>
+    <t>чип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT32-SC01 Plus </t>
+  </si>
+  <si>
+    <t>S3-Wrover-N16R2</t>
+  </si>
+  <si>
+    <t>PINS</t>
+  </si>
+  <si>
+    <t>14+12+14</t>
+  </si>
+  <si>
+    <t>16+9+16</t>
+  </si>
+  <si>
+    <t>ST7796UI</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>MCU8080 8Bit</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Driver IC Model</t>
+  </si>
+  <si>
+    <t>4" 320*480</t>
+  </si>
+  <si>
+    <t>ST7796S</t>
+  </si>
+  <si>
+    <t>CH343C</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CCW</t>
+  </si>
+  <si>
+    <t>PIN18</t>
+  </si>
+  <si>
+    <t>PIN17</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>T3 pause, ms</t>
+  </si>
+  <si>
+    <t>T1, us</t>
+  </si>
+  <si>
+    <t>T2, ms</t>
+  </si>
+  <si>
+    <t>Rise</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>Vrms</t>
+  </si>
+  <si>
+    <t>Vpp</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>11,11,15</t>
+  </si>
+  <si>
+    <t>130,130,100</t>
+  </si>
+  <si>
+    <t>8,8,9</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +918,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,8 +986,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1055,12 +1293,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1099,48 +1443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1163,6 +1468,145 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2191,6 +2635,289 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37654</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>94237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751F513E-58D7-46DC-B4B3-614EF9B5014E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="11496675"/>
+          <a:ext cx="3571429" cy="8104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171101</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>27599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DAE104-D4B3-4334-9B36-0E0E3943B218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14420850" y="11725275"/>
+          <a:ext cx="2790476" cy="7809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217739</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F9DA3F-D49D-47A4-8EBC-3341D6EDEB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="123824"/>
+          <a:ext cx="6218489" cy="5324475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5121" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96AC96A-9578-43E2-8422-B0F3D6F9FDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13411200" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>465402</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>189327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B42174-B08D-4D8A-8D78-ED36D6A54408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="1857375"/>
+          <a:ext cx="10580952" cy="9380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>55973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12674A4-79D8-4BBA-B150-CE20AA82AF17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6067425"/>
+          <a:ext cx="10600000" cy="9419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2568,21 +3295,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
@@ -2614,20 +3341,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -2720,12 +3447,12 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -3351,10 +4078,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95467AA3-6B5A-488C-A72D-7E4A9D156FCE}">
-  <dimension ref="B1:S14"/>
+  <dimension ref="B1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,21 +4097,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="25" t="s">
         <v>177</v>
       </c>
       <c r="J2" t="s">
@@ -3458,6 +4185,14 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>243</v>
+      </c>
+      <c r="P59" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3474,6 +4209,599 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931559E8-9F70-48BB-BE32-C29345991FD5}">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58">
+        <v>144</v>
+      </c>
+      <c r="D4" s="59">
+        <v>26</v>
+      </c>
+      <c r="E4" s="59">
+        <v>55</v>
+      </c>
+      <c r="F4" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G4" s="60">
+        <v>235</v>
+      </c>
+      <c r="H4" s="58">
+        <v>1245</v>
+      </c>
+      <c r="I4" s="59">
+        <v>254</v>
+      </c>
+      <c r="J4" s="59">
+        <v>84</v>
+      </c>
+      <c r="K4" s="59">
+        <v>720</v>
+      </c>
+      <c r="L4" s="60">
+        <v>205</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="60"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58">
+        <v>144</v>
+      </c>
+      <c r="D5" s="59">
+        <v>26</v>
+      </c>
+      <c r="E5" s="59">
+        <v>55</v>
+      </c>
+      <c r="F5" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="60">
+        <v>235</v>
+      </c>
+      <c r="H5" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I5" s="59">
+        <v>254</v>
+      </c>
+      <c r="J5" s="59">
+        <v>99</v>
+      </c>
+      <c r="K5" s="59">
+        <v>703</v>
+      </c>
+      <c r="L5" s="60">
+        <v>205</v>
+      </c>
+      <c r="M5" s="58">
+        <v>350</v>
+      </c>
+      <c r="N5" s="60">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87">
+        <v>10</v>
+      </c>
+      <c r="C6" s="58">
+        <v>144</v>
+      </c>
+      <c r="D6" s="59">
+        <v>26</v>
+      </c>
+      <c r="E6" s="59">
+        <v>55</v>
+      </c>
+      <c r="F6" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="60">
+        <v>235</v>
+      </c>
+      <c r="H6" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I6" s="59">
+        <v>255</v>
+      </c>
+      <c r="J6" s="59">
+        <v>120</v>
+      </c>
+      <c r="K6" s="59">
+        <v>683</v>
+      </c>
+      <c r="L6" s="60">
+        <v>205</v>
+      </c>
+      <c r="M6" s="58">
+        <v>421</v>
+      </c>
+      <c r="N6" s="60">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87">
+        <v>20</v>
+      </c>
+      <c r="C7" s="58">
+        <v>144</v>
+      </c>
+      <c r="D7" s="59">
+        <v>26</v>
+      </c>
+      <c r="E7" s="59">
+        <v>55</v>
+      </c>
+      <c r="F7" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G7" s="60">
+        <v>235</v>
+      </c>
+      <c r="H7" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="59">
+        <v>255</v>
+      </c>
+      <c r="J7" s="59">
+        <v>159</v>
+      </c>
+      <c r="K7" s="59">
+        <v>644</v>
+      </c>
+      <c r="L7" s="60">
+        <v>205</v>
+      </c>
+      <c r="M7" s="64">
+        <v>500</v>
+      </c>
+      <c r="N7" s="65">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>70</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="58">
+        <v>144</v>
+      </c>
+      <c r="D8" s="59">
+        <v>24</v>
+      </c>
+      <c r="E8" s="59">
+        <v>55</v>
+      </c>
+      <c r="F8" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G8" s="60">
+        <v>170</v>
+      </c>
+      <c r="H8" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I8" s="59">
+        <v>203</v>
+      </c>
+      <c r="J8" s="59">
+        <v>156</v>
+      </c>
+      <c r="K8" s="59">
+        <v>643</v>
+      </c>
+      <c r="L8" s="60">
+        <v>163</v>
+      </c>
+      <c r="M8" s="64">
+        <v>500</v>
+      </c>
+      <c r="N8" s="65">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
+        <v>75</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="58">
+        <v>144</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="59">
+        <v>55</v>
+      </c>
+      <c r="F9" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I9" s="59">
+        <v>127</v>
+      </c>
+      <c r="J9" s="59">
+        <v>160</v>
+      </c>
+      <c r="K9" s="59">
+        <v>643</v>
+      </c>
+      <c r="L9" s="60">
+        <v>100</v>
+      </c>
+      <c r="M9" s="58">
+        <v>500</v>
+      </c>
+      <c r="N9" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
+        <v>85</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I10" s="59">
+        <v>77</v>
+      </c>
+      <c r="J10" s="59">
+        <v>160</v>
+      </c>
+      <c r="K10" s="59">
+        <v>643</v>
+      </c>
+      <c r="L10" s="60">
+        <v>62</v>
+      </c>
+      <c r="M10" s="58">
+        <v>500</v>
+      </c>
+      <c r="N10" s="60">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="60"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="60"/>
+      <c r="U13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="60"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87">
+        <v>30</v>
+      </c>
+      <c r="C15" s="58">
+        <v>144</v>
+      </c>
+      <c r="D15" s="59">
+        <v>26</v>
+      </c>
+      <c r="E15" s="59">
+        <v>55</v>
+      </c>
+      <c r="F15" s="59">
+        <v>6.8</v>
+      </c>
+      <c r="G15" s="60">
+        <v>235</v>
+      </c>
+      <c r="H15" s="58">
+        <v>1246</v>
+      </c>
+      <c r="I15" s="59">
+        <v>255</v>
+      </c>
+      <c r="J15" s="59">
+        <v>200</v>
+      </c>
+      <c r="K15" s="59">
+        <v>604</v>
+      </c>
+      <c r="L15" s="60">
+        <v>205</v>
+      </c>
+      <c r="M15" s="64">
+        <v>574</v>
+      </c>
+      <c r="N15" s="65">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89">
+        <v>40</v>
+      </c>
+      <c r="C16" s="61">
+        <v>144</v>
+      </c>
+      <c r="D16" s="62">
+        <v>26</v>
+      </c>
+      <c r="E16" s="62">
+        <v>55</v>
+      </c>
+      <c r="F16" s="62">
+        <v>6.8</v>
+      </c>
+      <c r="G16" s="63">
+        <v>235</v>
+      </c>
+      <c r="H16" s="61">
+        <v>1246</v>
+      </c>
+      <c r="I16" s="62">
+        <v>255</v>
+      </c>
+      <c r="J16" s="62">
+        <v>238</v>
+      </c>
+      <c r="K16" s="62">
+        <v>564</v>
+      </c>
+      <c r="L16" s="63">
+        <v>205</v>
+      </c>
+      <c r="M16" s="61">
+        <v>637</v>
+      </c>
+      <c r="N16" s="63">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D1AFEC-224C-4FD4-8FCC-E6FCC26AB145}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3E925-B508-4DA5-8DA9-AB07648B8FEF}">
+  <dimension ref="N3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748AC87-A697-4E37-B1A5-DA8A80AB8301}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3550,10 +4878,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -3582,16 +4910,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE9B8B-A082-4C9A-8A24-17454167A858}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -3603,30 +4931,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -3668,11 +4996,11 @@
       <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3776,6 +5104,17 @@
       </c>
       <c r="L8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3803,21 +5142,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" t="s">
         <v>92</v>
       </c>
@@ -3875,18 +5214,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061EFE5F-89B3-4AFC-BD89-66CA760B3DDA}">
   <dimension ref="B1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3930,40 +5269,40 @@
       <c r="C5">
         <v>0.98299999999999998</v>
       </c>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="M6" s="39" t="s">
+      <c r="H6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="48"/>
       <c r="AG6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="H7" s="40" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="H7" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="27" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3974,34 +5313,34 @@
       <c r="C8" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="36" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4018,10 +5357,10 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="28">
         <v>30</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="30">
         <v>1.8</v>
       </c>
       <c r="I9" s="7">
@@ -4033,10 +5372,10 @@
       <c r="L9" s="7">
         <v>1</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="28">
         <v>30</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="30">
         <v>0.9</v>
       </c>
       <c r="O9" s="7">
@@ -4059,10 +5398,10 @@
       <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="28">
         <v>33</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="30">
         <v>2.6</v>
       </c>
       <c r="I10" s="7">
@@ -4074,10 +5413,10 @@
       <c r="L10" s="7">
         <v>3</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="28">
         <v>33</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="30">
         <v>1.3</v>
       </c>
       <c r="O10" s="7">
@@ -4100,10 +5439,10 @@
       <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="28">
         <v>35</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="30">
         <v>3.1</v>
       </c>
       <c r="I11" s="7">
@@ -4115,10 +5454,10 @@
       <c r="L11" s="7">
         <v>4</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="28">
         <v>35</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="30">
         <v>1.4</v>
       </c>
       <c r="O11" s="7">
@@ -4141,10 +5480,10 @@
       <c r="F12" s="9">
         <v>7</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="29">
         <v>37</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="31">
         <v>3.6</v>
       </c>
       <c r="I12" s="7">
@@ -4156,10 +5495,10 @@
       <c r="L12" s="9">
         <v>7</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="29">
         <v>37</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="31">
         <v>1.645</v>
       </c>
       <c r="O12" s="7">
@@ -4176,20 +5515,20 @@
       <c r="J13" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="37">
         <v>39</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="38">
         <v>1.85</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="M14" s="50">
+      <c r="M14" s="37">
         <v>44</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="38">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4402,13 +5741,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
@@ -4508,21 +5847,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
@@ -4557,20 +5896,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -4663,12 +6002,12 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -4692,23 +6031,304 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49459855-3C25-488A-85A2-0EF7E1E9D48C}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>133</v>
       </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O5" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="M7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8">
+        <f>14+12+14</f>
+        <v>40</v>
+      </c>
+      <c r="R8" s="53"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>320</v>
+      </c>
+      <c r="D9">
+        <v>480</v>
+      </c>
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="40">
+        <f>SQRT(C9*C9+D9*D9)/E9</f>
+        <v>164.82520116406809</v>
+      </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9">
+        <f>16+9+16</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>420</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="40">
+        <f>SQRT(C10*C10+D10*D10)/E10</f>
+        <v>200.78856885469364</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>480</v>
+      </c>
+      <c r="D11">
+        <v>800</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="40">
+        <f>SQRT(C11*C11+D11*D11)/E11</f>
+        <v>207.32273403894402</v>
+      </c>
+      <c r="G11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{E3743D53-E50E-434C-B723-DA66C52F4034}"/>
+    <hyperlink ref="H20:I20" r:id="rId2" display="40-Pin TFT Breakout" xr:uid="{7AAE1F92-9A16-4BBA-B6D6-038A6B3E7628}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{D6981F58-2A8D-480E-A9CC-F2DC793A9FF9}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{FFB46A0D-44A8-431B-A86E-26AD4BAD038F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engineering/Reverse_Estim_2B/Components.xlsx
+++ b/Engineering/Reverse_Estim_2B/Components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\github_REPO\Engineering\Reverse_Estim_2B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\github_REPO\Seismic_Project\Engineering\Reverse_Estim_2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF7E6B-096C-4784-8012-561E5819088B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32787023-5F25-40CD-908E-E692B9505874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="13" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="731" activeTab="14" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Stim" sheetId="13" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId12"/>
     <sheet name="Encoders" sheetId="2" r:id="rId13"/>
     <sheet name="Sygnal" sheetId="19" r:id="rId14"/>
-    <sheet name="Battery" sheetId="17" r:id="rId15"/>
-    <sheet name="ESP_32" sheetId="18" r:id="rId16"/>
-    <sheet name="Salary" sheetId="3" r:id="rId17"/>
+    <sheet name="UDEMI" sheetId="20" r:id="rId15"/>
+    <sheet name="Battery" sheetId="17" r:id="rId16"/>
+    <sheet name="ESP_32" sheetId="18" r:id="rId17"/>
+    <sheet name="Salary" sheetId="3" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="266">
   <si>
     <t>GND</t>
   </si>
@@ -843,12 +843,27 @@
   <si>
     <t>lo</t>
   </si>
+  <si>
+    <t>Pulse 2B</t>
+  </si>
+  <si>
+    <t>Andrei Bolun</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Andrei.bolun@rsystems.com</t>
+  </si>
+  <si>
+    <t>Computaris1@</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +943,12 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080809"/>
+      <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1404,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1472,6 +1493,63 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,60 +1589,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1589,24 +1613,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3295,21 +3317,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
@@ -3341,20 +3363,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -3447,12 +3469,12 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -4097,11 +4119,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
@@ -4210,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931559E8-9F70-48BB-BE32-C29345991FD5}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,532 +4250,1055 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="A1" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="N2" s="81"/>
+      <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="55" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61">
         <v>1</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="43">
         <v>144</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="44">
         <v>26</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="44">
         <v>55</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="44">
         <v>6.8</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="45">
         <v>235</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="43">
         <v>1245</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="44">
         <v>254</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="44">
         <v>84</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="44">
         <v>720</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="45">
         <v>205</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="60"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61">
         <v>5</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="43">
         <v>144</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="44">
         <v>26</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="44">
         <v>55</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="44">
         <v>6.8</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="45">
         <v>235</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="43">
         <v>1246</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="44">
         <v>254</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="44">
         <v>99</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="44">
         <v>703</v>
       </c>
-      <c r="L5" s="60">
+      <c r="L5" s="45">
         <v>205</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="43">
         <v>350</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="45">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61">
         <v>10</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="43">
         <v>144</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="44">
         <v>26</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="44">
         <v>55</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="44">
         <v>6.8</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="45">
         <v>235</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="43">
         <v>1246</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="44">
         <v>255</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="44">
         <v>120</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="44">
         <v>683</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="45">
         <v>205</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="43">
         <v>421</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="45">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61">
         <v>20</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="43">
         <v>144</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="44">
         <v>26</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="44">
         <v>55</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="44">
         <v>6.8</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="45">
         <v>235</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="43">
         <v>1246</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="44">
         <v>255</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="44">
         <v>159</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="44">
         <v>644</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="45">
         <v>205</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="49">
         <v>500</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="50">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="86">
+      <c r="A8" s="60">
         <v>70</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="58">
+      <c r="B8" s="61"/>
+      <c r="C8" s="43">
         <v>144</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="44">
         <v>24</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="44">
         <v>55</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="44">
         <v>6.8</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="45">
         <v>170</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="43">
         <v>1246</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="44">
         <v>203</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="44">
         <v>156</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="44">
         <v>643</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="45">
         <v>163</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="49">
         <v>500</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="50">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
+      <c r="A9" s="60">
         <v>75</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="58">
+      <c r="B9" s="61"/>
+      <c r="C9" s="43">
         <v>144</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="44">
         <v>55</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="44">
         <v>6.8</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="43">
         <v>1246</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="44">
         <v>127</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="44">
         <v>160</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="44">
         <v>643</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="45">
         <v>100</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="43">
         <v>500</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="45">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+      <c r="A10" s="60">
         <v>85</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="58">
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="43">
         <v>1246</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="44">
         <v>77</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="44">
         <v>160</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="44">
         <v>643</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="45">
         <v>62</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="43">
         <v>500</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="45">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="60"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="45"/>
       <c r="U13" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="60"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61">
         <v>30</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="43">
         <v>144</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="44">
         <v>26</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="44">
         <v>55</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="44">
         <v>6.8</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="45">
         <v>235</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="43">
         <v>1246</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="44">
         <v>255</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="44">
         <v>200</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="44">
         <v>604</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15" s="45">
         <v>205</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="49">
         <v>574</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="50">
         <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63">
         <v>40</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="46">
         <v>144</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="47">
         <v>26</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="47">
         <v>55</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="47">
         <v>6.8</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="48">
         <v>235</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="46">
         <v>1246</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="47">
         <v>255</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="47">
         <v>238</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="47">
         <v>564</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="48">
         <v>205</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="46">
         <v>637</v>
       </c>
-      <c r="N16" s="63">
+      <c r="N16" s="48">
         <v>408</v>
       </c>
     </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="N23" s="84"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="N24" s="55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61">
+        <v>1</v>
+      </c>
+      <c r="C25" s="43">
+        <v>144</v>
+      </c>
+      <c r="D25" s="44">
+        <v>26</v>
+      </c>
+      <c r="E25" s="44">
+        <v>55</v>
+      </c>
+      <c r="F25" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G25" s="45">
+        <v>235</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1245</v>
+      </c>
+      <c r="I25" s="44">
+        <v>254</v>
+      </c>
+      <c r="J25" s="44">
+        <v>84</v>
+      </c>
+      <c r="K25" s="44">
+        <v>720</v>
+      </c>
+      <c r="L25" s="45">
+        <v>205</v>
+      </c>
+      <c r="M25" s="43"/>
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61">
+        <v>5</v>
+      </c>
+      <c r="C26" s="43">
+        <v>144</v>
+      </c>
+      <c r="D26" s="44">
+        <v>26</v>
+      </c>
+      <c r="E26" s="44">
+        <v>55</v>
+      </c>
+      <c r="F26" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G26" s="45">
+        <v>235</v>
+      </c>
+      <c r="H26" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I26" s="44">
+        <v>254</v>
+      </c>
+      <c r="J26" s="44">
+        <v>99</v>
+      </c>
+      <c r="K26" s="44">
+        <v>703</v>
+      </c>
+      <c r="L26" s="45">
+        <v>205</v>
+      </c>
+      <c r="M26" s="43">
+        <v>350</v>
+      </c>
+      <c r="N26" s="45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61">
+        <v>10</v>
+      </c>
+      <c r="C27" s="43">
+        <v>144</v>
+      </c>
+      <c r="D27" s="44">
+        <v>26</v>
+      </c>
+      <c r="E27" s="44">
+        <v>55</v>
+      </c>
+      <c r="F27" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G27" s="45">
+        <v>235</v>
+      </c>
+      <c r="H27" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I27" s="44">
+        <v>255</v>
+      </c>
+      <c r="J27" s="44">
+        <v>120</v>
+      </c>
+      <c r="K27" s="44">
+        <v>683</v>
+      </c>
+      <c r="L27" s="45">
+        <v>205</v>
+      </c>
+      <c r="M27" s="43">
+        <v>421</v>
+      </c>
+      <c r="N27" s="45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61">
+        <v>20</v>
+      </c>
+      <c r="C28" s="43">
+        <v>144</v>
+      </c>
+      <c r="D28" s="44">
+        <v>26</v>
+      </c>
+      <c r="E28" s="44">
+        <v>55</v>
+      </c>
+      <c r="F28" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G28" s="45">
+        <v>235</v>
+      </c>
+      <c r="H28" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I28" s="44">
+        <v>255</v>
+      </c>
+      <c r="J28" s="44">
+        <v>159</v>
+      </c>
+      <c r="K28" s="44">
+        <v>644</v>
+      </c>
+      <c r="L28" s="45">
+        <v>205</v>
+      </c>
+      <c r="M28" s="49">
+        <v>500</v>
+      </c>
+      <c r="N28" s="50">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="60">
+        <v>70</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="43">
+        <v>144</v>
+      </c>
+      <c r="D29" s="44">
+        <v>24</v>
+      </c>
+      <c r="E29" s="44">
+        <v>55</v>
+      </c>
+      <c r="F29" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G29" s="45">
+        <v>170</v>
+      </c>
+      <c r="H29" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I29" s="44">
+        <v>203</v>
+      </c>
+      <c r="J29" s="44">
+        <v>156</v>
+      </c>
+      <c r="K29" s="44">
+        <v>643</v>
+      </c>
+      <c r="L29" s="45">
+        <v>163</v>
+      </c>
+      <c r="M29" s="49">
+        <v>500</v>
+      </c>
+      <c r="N29" s="50">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="60">
+        <v>75</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="43">
+        <v>144</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="44">
+        <v>55</v>
+      </c>
+      <c r="F30" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I30" s="44">
+        <v>127</v>
+      </c>
+      <c r="J30" s="44">
+        <v>160</v>
+      </c>
+      <c r="K30" s="44">
+        <v>643</v>
+      </c>
+      <c r="L30" s="45">
+        <v>100</v>
+      </c>
+      <c r="M30" s="43">
+        <v>500</v>
+      </c>
+      <c r="N30" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <v>85</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I31" s="44">
+        <v>77</v>
+      </c>
+      <c r="J31" s="44">
+        <v>160</v>
+      </c>
+      <c r="K31" s="44">
+        <v>643</v>
+      </c>
+      <c r="L31" s="45">
+        <v>62</v>
+      </c>
+      <c r="M31" s="43">
+        <v>500</v>
+      </c>
+      <c r="N31" s="45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="45"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="45"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="45"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="45"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61">
+        <v>30</v>
+      </c>
+      <c r="C36" s="43">
+        <v>144</v>
+      </c>
+      <c r="D36" s="44">
+        <v>26</v>
+      </c>
+      <c r="E36" s="44">
+        <v>55</v>
+      </c>
+      <c r="F36" s="44">
+        <v>6.8</v>
+      </c>
+      <c r="G36" s="45">
+        <v>235</v>
+      </c>
+      <c r="H36" s="43">
+        <v>1246</v>
+      </c>
+      <c r="I36" s="44">
+        <v>255</v>
+      </c>
+      <c r="J36" s="44">
+        <v>200</v>
+      </c>
+      <c r="K36" s="44">
+        <v>604</v>
+      </c>
+      <c r="L36" s="45">
+        <v>205</v>
+      </c>
+      <c r="M36" s="49">
+        <v>574</v>
+      </c>
+      <c r="N36" s="50">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="63">
+        <v>40</v>
+      </c>
+      <c r="C37" s="46">
+        <v>144</v>
+      </c>
+      <c r="D37" s="47">
+        <v>26</v>
+      </c>
+      <c r="E37" s="47">
+        <v>55</v>
+      </c>
+      <c r="F37" s="47">
+        <v>6.8</v>
+      </c>
+      <c r="G37" s="48">
+        <v>235</v>
+      </c>
+      <c r="H37" s="46">
+        <v>1246</v>
+      </c>
+      <c r="I37" s="47">
+        <v>255</v>
+      </c>
+      <c r="J37" s="47">
+        <v>238</v>
+      </c>
+      <c r="K37" s="47">
+        <v>564</v>
+      </c>
+      <c r="L37" s="48">
+        <v>205</v>
+      </c>
+      <c r="M37" s="46">
+        <v>637</v>
+      </c>
+      <c r="N37" s="48">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4761,6 +5306,45 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD6F67-4C01-4224-8C56-8C31E27590BE}">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B8CEC89C-FD4E-4D9E-AFF4-648C2886BC6D}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{2DF85B3C-DC00-47E1-AAA6-F62B9B4CCE7D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D1AFEC-224C-4FD4-8FCC-E6FCC26AB145}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -4780,7 +5364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3E925-B508-4DA5-8DA9-AB07648B8FEF}">
   <dimension ref="N3"/>
   <sheetViews>
@@ -4801,7 +5385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748AC87-A697-4E37-B1A5-DA8A80AB8301}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4878,10 +5462,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="89"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -4931,30 +5515,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -4996,11 +5580,11 @@
       <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5142,21 +5726,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" t="s">
         <v>92</v>
       </c>
@@ -5221,11 +5805,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5269,30 +5853,30 @@
       <c r="C5">
         <v>0.98299999999999998</v>
       </c>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="M6" s="48" t="s">
+      <c r="H6" s="69"/>
+      <c r="M6" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="48"/>
+      <c r="N6" s="69"/>
       <c r="AG6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
       <c r="H7" s="27" t="s">
         <v>188</v>
       </c>
@@ -5741,13 +6325,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
@@ -5847,21 +6431,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
@@ -5896,20 +6480,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -6002,12 +6586,12 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -6101,7 +6685,7 @@
       <c r="O7">
         <v>8</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="74" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6143,7 +6727,7 @@
         <f>14+12+14</f>
         <v>40</v>
       </c>
-      <c r="R8" s="53"/>
+      <c r="R8" s="74"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C9">
@@ -6263,10 +6847,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21" t="s">

--- a/Engineering/Reverse_Estim_2B/Components.xlsx
+++ b/Engineering/Reverse_Estim_2B/Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\github_REPO\Seismic_Project\Engineering\Reverse_Estim_2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32787023-5F25-40CD-908E-E692B9505874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB7873-F0D7-4EEB-A4F5-CBB7D58CB052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="731" activeTab="14" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="731" activeTab="13" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Stim" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="271">
   <si>
     <t>GND</t>
   </si>
@@ -858,11 +858,29 @@
   <si>
     <t>Computaris1@</t>
   </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t>FNIRSi</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1032,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1420,12 +1438,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1550,6 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1628,7 +1677,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2752,6 +2802,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361190</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A90C59-F49C-48A2-9A26-149A5314B9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14449425" y="4486275"/>
+          <a:ext cx="6076190" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3317,21 +3416,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
@@ -3363,20 +3462,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -3469,12 +3568,12 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -4119,11 +4218,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
@@ -4232,10 +4331,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931559E8-9F70-48BB-BE32-C29345991FD5}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF43" sqref="AF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,22 +4349,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -4274,24 +4373,24 @@
       <c r="B2" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="N2" s="84"/>
+      <c r="N2" s="85"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
@@ -4772,22 +4871,22 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
@@ -4796,24 +4895,24 @@
       <c r="B23" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="80" t="s">
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83" t="s">
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="N23" s="84"/>
+      <c r="N23" s="85"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
@@ -5157,7 +5256,7 @@
       <c r="M32" s="43"/>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="61"/>
       <c r="C33" s="43"/>
@@ -5173,7 +5272,7 @@
       <c r="M33" s="43"/>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="61"/>
       <c r="C34" s="43"/>
@@ -5189,7 +5288,7 @@
       <c r="M34" s="43"/>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="61"/>
       <c r="C35" s="43"/>
@@ -5205,7 +5304,7 @@
       <c r="M35" s="43"/>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="61">
         <v>30</v>
@@ -5247,7 +5346,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="62"/>
       <c r="B37" s="63">
         <v>40</v>
@@ -5289,19 +5388,230 @@
         <v>408</v>
       </c>
     </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y42" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="69"/>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="69"/>
+      <c r="I43" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="J43" s="69"/>
+      <c r="L43" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="M43" s="69"/>
+      <c r="O43" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="P43" s="69"/>
+      <c r="R43" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="S43" s="69"/>
+      <c r="U43" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="V43" s="69"/>
+      <c r="Y43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>98</v>
+      </c>
+      <c r="G44" s="91">
+        <f>F44/$E$44</f>
+        <v>3.92</v>
+      </c>
+      <c r="H44">
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <v>150</v>
+      </c>
+      <c r="J44" s="91">
+        <f>I44/H44</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="L44">
+        <v>215</v>
+      </c>
+      <c r="M44" s="91">
+        <f>L44/$E$44</f>
+        <v>8.6</v>
+      </c>
+      <c r="N44">
+        <v>40</v>
+      </c>
+      <c r="O44">
+        <v>270</v>
+      </c>
+      <c r="P44" s="91">
+        <f>O44/N44</f>
+        <v>6.75</v>
+      </c>
+      <c r="Q44">
+        <v>46</v>
+      </c>
+      <c r="R44">
+        <v>358</v>
+      </c>
+      <c r="S44" s="91">
+        <f>R44/Q44</f>
+        <v>7.7826086956521738</v>
+      </c>
+      <c r="T44">
+        <v>53</v>
+      </c>
+      <c r="U44">
+        <v>428</v>
+      </c>
+      <c r="V44" s="91">
+        <f>U44/T44</f>
+        <v>8.0754716981132084</v>
+      </c>
+      <c r="X44" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y44">
+        <v>1.8</v>
+      </c>
+      <c r="Z44">
+        <v>100.4</v>
+      </c>
+      <c r="AA44">
+        <f>Z44/Y44</f>
+        <v>55.777777777777779</v>
+      </c>
+      <c r="AB44">
+        <v>1.8</v>
+      </c>
+      <c r="AC44">
+        <v>96.3</v>
+      </c>
+      <c r="AD44">
+        <f>AC44/AB44</f>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>150</v>
+      </c>
+      <c r="F45">
+        <v>1500</v>
+      </c>
+      <c r="G45" s="92">
+        <f>F45/$E$45</f>
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>190</v>
+      </c>
+      <c r="I45">
+        <v>2200</v>
+      </c>
+      <c r="J45" s="91">
+        <f>I45/H45</f>
+        <v>11.578947368421053</v>
+      </c>
+      <c r="L45">
+        <v>2900</v>
+      </c>
+      <c r="M45" s="92">
+        <f>L45/$E$45</f>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="N45">
+        <v>240</v>
+      </c>
+      <c r="O45">
+        <v>3700</v>
+      </c>
+      <c r="P45" s="91">
+        <f>O45/N45</f>
+        <v>15.416666666666666</v>
+      </c>
+      <c r="Q45">
+        <v>286</v>
+      </c>
+      <c r="R45">
+        <v>4400</v>
+      </c>
+      <c r="S45" s="91">
+        <f>R45/Q45</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="T45">
+        <v>330</v>
+      </c>
+      <c r="U45">
+        <v>5200</v>
+      </c>
+      <c r="V45" s="91">
+        <f>U45/T45</f>
+        <v>15.757575757575758</v>
+      </c>
+      <c r="X45" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y45">
+        <v>1.42</v>
+      </c>
+      <c r="Z45">
+        <v>101.4</v>
+      </c>
+      <c r="AA45">
+        <f>Z45/Y45</f>
+        <v>71.408450704225359</v>
+      </c>
+      <c r="AB45">
+        <v>1.34</v>
+      </c>
+      <c r="AC45">
+        <v>97.1</v>
+      </c>
+      <c r="AD45">
+        <f>AC45/AB45</f>
+        <v>72.46268656716417</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:M43"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5309,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD6F67-4C01-4224-8C56-8C31E27590BE}">
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,7 +5640,7 @@
       <c r="D2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="64" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5462,10 +5772,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="90"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -5515,30 +5825,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -5580,11 +5890,11 @@
       <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5726,21 +6036,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" t="s">
         <v>92</v>
       </c>
@@ -5805,11 +6115,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5853,30 +6163,30 @@
       <c r="C5">
         <v>0.98299999999999998</v>
       </c>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="M6" s="69" t="s">
+      <c r="H6" s="70"/>
+      <c r="M6" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="69"/>
+      <c r="N6" s="70"/>
       <c r="AG6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="H7" s="27" t="s">
         <v>188</v>
       </c>
@@ -6325,13 +6635,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
@@ -6431,21 +6741,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" t="s">
         <v>92</v>
       </c>
@@ -6480,20 +6790,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -6586,12 +6896,12 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -6685,7 +6995,7 @@
       <c r="O7">
         <v>8</v>
       </c>
-      <c r="R7" s="74" t="s">
+      <c r="R7" s="75" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6727,7 +7037,7 @@
         <f>14+12+14</f>
         <v>40</v>
       </c>
-      <c r="R8" s="74"/>
+      <c r="R8" s="75"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C9">
@@ -6847,10 +7157,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21" t="s">

--- a/Engineering/Reverse_Estim_2B/Components.xlsx
+++ b/Engineering/Reverse_Estim_2B/Components.xlsx
@@ -8,29 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\github_REPO\Seismic_Project\Engineering\Reverse_Estim_2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB7873-F0D7-4EEB-A4F5-CBB7D58CB052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A335C-2C6D-4E2F-8CBD-EA95C2D1EB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="731" activeTab="13" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
+    <workbookView xWindow="38280" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="3" activeTab="19" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Stim" sheetId="13" r:id="rId1"/>
     <sheet name="Parts Selection" sheetId="5" r:id="rId2"/>
-    <sheet name="Power" sheetId="10" r:id="rId3"/>
-    <sheet name="Devider" sheetId="11" r:id="rId4"/>
-    <sheet name="Modes_2B" sheetId="12" r:id="rId5"/>
-    <sheet name="MIO" sheetId="16" r:id="rId6"/>
-    <sheet name="Data Signal" sheetId="15" r:id="rId7"/>
-    <sheet name="Transistor" sheetId="7" r:id="rId8"/>
-    <sheet name="Display" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId10"/>
-    <sheet name="SDiode" sheetId="4" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId12"/>
-    <sheet name="Encoders" sheetId="2" r:id="rId13"/>
-    <sheet name="Sygnal" sheetId="19" r:id="rId14"/>
-    <sheet name="UDEMI" sheetId="20" r:id="rId15"/>
-    <sheet name="Battery" sheetId="17" r:id="rId16"/>
-    <sheet name="ESP_32" sheetId="18" r:id="rId17"/>
-    <sheet name="Salary" sheetId="3" r:id="rId18"/>
+    <sheet name="Sheet4" sheetId="23" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId4"/>
+    <sheet name="Power" sheetId="10" r:id="rId5"/>
+    <sheet name="Devider" sheetId="11" r:id="rId6"/>
+    <sheet name="Modes_2B" sheetId="12" r:id="rId7"/>
+    <sheet name="MIO" sheetId="16" r:id="rId8"/>
+    <sheet name="Data Signal" sheetId="15" r:id="rId9"/>
+    <sheet name="Transistor" sheetId="7" r:id="rId10"/>
+    <sheet name="Display" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId12"/>
+    <sheet name="SDiode" sheetId="4" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId14"/>
+    <sheet name="Encoders" sheetId="2" r:id="rId15"/>
+    <sheet name="Sygnal" sheetId="19" r:id="rId16"/>
+    <sheet name="UDEMI" sheetId="20" r:id="rId17"/>
+    <sheet name="Sheet5" sheetId="24" r:id="rId18"/>
+    <sheet name="Battery" sheetId="17" r:id="rId19"/>
+    <sheet name="ESP_32" sheetId="18" r:id="rId20"/>
+    <sheet name="Salary" sheetId="3" r:id="rId21"/>
+    <sheet name="Sheet3" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="306">
   <si>
     <t>GND</t>
   </si>
@@ -873,6 +877,111 @@
   <si>
     <t>Red</t>
   </si>
+  <si>
+    <t>Si86xx </t>
+  </si>
+  <si>
+    <t>изоляция</t>
+  </si>
+  <si>
+    <t>Рышкановка</t>
+  </si>
+  <si>
+    <t>Роз</t>
+  </si>
+  <si>
+    <t>Буюканы</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Комнты</t>
+  </si>
+  <si>
+    <t>Неага</t>
+  </si>
+  <si>
+    <t>EC12D1564402</t>
+  </si>
+  <si>
+    <t>Detents</t>
+  </si>
+  <si>
+    <t>Life Cycles</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IP Raiting</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Optical </t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>Pico 2</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>SPI Clock</t>
+  </si>
+  <si>
+    <t>SPI Select / ID COMM</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SPI Data OUT</t>
+  </si>
+  <si>
+    <t>SPI Data IN</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>MICROE</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
 </sst>
 </file>
 
@@ -881,7 +990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,8 +1078,69 @@
       <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF161616"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1219,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1473,7 +1655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1679,6 +1861,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2802,16 +3006,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>361190</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161744</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>151640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2834,8 +3038,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14449425" y="4486275"/>
+          <a:off x="13630275" y="5391150"/>
           <a:ext cx="6076190" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>94298</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C10DF0-B27C-4BA9-A7E0-9304DBDADD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13249275" y="0"/>
+          <a:ext cx="7619048" cy="5171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,6 +3096,55 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552134</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D7AF84-3FE5-4809-9E87-9A0EE295498B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="200025"/>
+          <a:ext cx="2523809" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3375,6 +3672,511 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261FA77-02D2-404C-8B7C-210026756023}">
+  <dimension ref="B1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="69"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2.5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>1.34</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="C25" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C25:F25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" display="https://eu.mouser.com/ProductDetail/Texas-Instruments/TPS259472ARPWR?qs=iLbezkQI%252BshCnrYg81AACA%3D%3D" xr:uid="{F6823AAF-A904-47D2-B19F-DB90CE861EFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49459855-3C25-488A-85A2-0EF7E1E9D48C}">
+  <dimension ref="B2:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O5" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="M7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8">
+        <f>14+12+14</f>
+        <v>40</v>
+      </c>
+      <c r="R8" s="75"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>320</v>
+      </c>
+      <c r="D9">
+        <v>480</v>
+      </c>
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="40">
+        <f>SQRT(C9*C9+D9*D9)/E9</f>
+        <v>164.82520116406809</v>
+      </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9">
+        <f>16+9+16</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>420</v>
+      </c>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="40">
+        <f>SQRT(C10*C10+D10*D10)/E10</f>
+        <v>200.78856885469364</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>480</v>
+      </c>
+      <c r="D11">
+        <v>800</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="40">
+        <f>SQRT(C11*C11+D11*D11)/E11</f>
+        <v>207.32273403894402</v>
+      </c>
+      <c r="G11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{E3743D53-E50E-434C-B723-DA66C52F4034}"/>
+    <hyperlink ref="H20:I20" r:id="rId2" display="40-Pin TFT Breakout" xr:uid="{7AAE1F92-9A16-4BBA-B6D6-038A6B3E7628}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{D6981F58-2A8D-480E-A9CC-F2DC793A9FF9}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{FFB46A0D-44A8-431B-A86E-26AD4BAD038F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCDC1B2-BFA3-403F-B63E-611DD966EC6B}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -3397,12 +4199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF90115E-A44E-4D5D-AAF0-1A710840CB91}">
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J3"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,11 +4397,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C5E7E-F7E8-4D60-B7AB-BE23FBE6BF24}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
@@ -4197,12 +4999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95467AA3-6B5A-488C-A72D-7E4A9D156FCE}">
   <dimension ref="B1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,12 +5131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931559E8-9F70-48BB-BE32-C29345991FD5}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF43" sqref="AF43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5615,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD6F67-4C01-4224-8C56-8C31E27590BE}">
   <dimension ref="B2:E2"/>
   <sheetViews>
@@ -5654,7 +6456,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBAD92-8027-4F33-A8DA-D18F85C99B62}">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="94" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="94" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="94" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="94" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D1AFEC-224C-4FD4-8FCC-E6FCC26AB145}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -5674,140 +6564,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3E925-B508-4DA5-8DA9-AB07648B8FEF}">
-  <dimension ref="N3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE9B8B-A082-4C9A-8A24-17454167A858}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748AC87-A697-4E37-B1A5-DA8A80AB8301}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.3756944444444445</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="10">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="90"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="8">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="10">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B15:C15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE9B8B-A082-4C9A-8A24-17454167A858}">
-  <dimension ref="A1:Q12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5983,32 +6745,53 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>182</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>183</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>196</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D20" s="106" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6019,10 +6802,359 @@
     <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3E925-B508-4DA5-8DA9-AB07648B8FEF}">
+  <dimension ref="N3:U61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>305</v>
+      </c>
+      <c r="U61">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748AC87-A697-4E37-B1A5-DA8A80AB8301}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="90"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="10">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49654992-4A93-4408-80F5-251C0D5EC260}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>380</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G4" si="0">F2/E2</f>
+        <v>8.6363636363636367</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>380</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>10.555555555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+      <c r="G5">
+        <f>F5/E5</f>
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{0891B63B-C0F6-46C6-B00B-48A26EBCC3F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F703F63E-3C3A-4F14-B1F7-83E6A6E96BF7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="101">
+        <v>15</v>
+      </c>
+      <c r="D2" s="101">
+        <v>30</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="97">
+        <v>32</v>
+      </c>
+      <c r="D3" s="97">
+        <v>32</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="98">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513088FD-D746-49A1-9413-3E6C5EA3B4B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6374A9-8CCD-4680-9B01-DC2DB6FAC1E3}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -6104,12 +7236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061EFE5F-89B3-4AFC-BD89-66CA760B3DDA}">
   <dimension ref="B1:AJ21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,7 +7598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC08C918-F4F2-4FBE-89BD-0EB07AE6C9B5}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -6609,7 +7741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF836A-9501-4AD4-AFB3-447A55CC27EF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6624,7 +7756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72224EE-4A45-44A6-8F93-0E57B1C080F4}">
   <dimension ref="B1:F7"/>
   <sheetViews>
@@ -6720,509 +7852,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261FA77-02D2-404C-8B7C-210026756023}">
-  <dimension ref="B1:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3">
-        <v>0.8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="69"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13">
-        <v>0.2</v>
-      </c>
-      <c r="F13">
-        <v>0.4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2.5</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16">
-        <v>1.34</v>
-      </c>
-      <c r="E16">
-        <v>1.5</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C25:F25"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="https://eu.mouser.com/ProductDetail/Texas-Instruments/TPS259472ARPWR?qs=iLbezkQI%252BshCnrYg81AACA%3D%3D" xr:uid="{F6823AAF-A904-47D2-B19F-DB90CE861EFC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49459855-3C25-488A-85A2-0EF7E1E9D48C}">
-  <dimension ref="B2:R38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N5" t="s">
-        <v>222</v>
-      </c>
-      <c r="O5" t="s">
-        <v>221</v>
-      </c>
-      <c r="P5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="M7" t="s">
-        <v>219</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="R7" s="75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" t="s">
-        <v>218</v>
-      </c>
-      <c r="N8">
-        <v>16</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8">
-        <f>14+12+14</f>
-        <v>40</v>
-      </c>
-      <c r="R8" s="75"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>320</v>
-      </c>
-      <c r="D9">
-        <v>480</v>
-      </c>
-      <c r="E9">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="40">
-        <f>SQRT(C9*C9+D9*D9)/E9</f>
-        <v>164.82520116406809</v>
-      </c>
-      <c r="G9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M9" t="s">
-        <v>231</v>
-      </c>
-      <c r="N9">
-        <v>16</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q9">
-        <f>16+9+16</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>420</v>
-      </c>
-      <c r="D10">
-        <v>800</v>
-      </c>
-      <c r="E10">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="40">
-        <f>SQRT(C10*C10+D10*D10)/E10</f>
-        <v>200.78856885469364</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>480</v>
-      </c>
-      <c r="D11">
-        <v>800</v>
-      </c>
-      <c r="E11">
-        <v>4.5</v>
-      </c>
-      <c r="F11" s="40">
-        <f>SQRT(C11*C11+D11*D11)/E11</f>
-        <v>207.32273403894402</v>
-      </c>
-      <c r="G11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>227</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="I20" s="76"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="H20:I20"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" xr:uid="{E3743D53-E50E-434C-B723-DA66C52F4034}"/>
-    <hyperlink ref="H20:I20" r:id="rId2" display="40-Pin TFT Breakout" xr:uid="{7AAE1F92-9A16-4BBA-B6D6-038A6B3E7628}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{D6981F58-2A8D-480E-A9CC-F2DC793A9FF9}"/>
-    <hyperlink ref="B38" r:id="rId4" xr:uid="{FFB46A0D-44A8-431B-A86E-26AD4BAD038F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
-</worksheet>
 </file>
--- a/Engineering/Reverse_Estim_2B/Components.xlsx
+++ b/Engineering/Reverse_Estim_2B/Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Sensation_Project\github_REPO\Seismic_Project\Engineering\Reverse_Estim_2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A335C-2C6D-4E2F-8CBD-EA95C2D1EB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED6523C-518A-4EB0-9DE2-51A49832F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="3" activeTab="19" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
+    <workbookView xWindow="38280" yWindow="5250" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="6" activeTab="20" xr2:uid="{FD3A25D2-84E6-47B3-86E3-86B96C4510A2}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Stim" sheetId="13" r:id="rId1"/>
@@ -33,8 +33,8 @@
     <sheet name="Sheet5" sheetId="24" r:id="rId18"/>
     <sheet name="Battery" sheetId="17" r:id="rId19"/>
     <sheet name="ESP_32" sheetId="18" r:id="rId20"/>
-    <sheet name="Salary" sheetId="3" r:id="rId21"/>
-    <sheet name="Sheet3" sheetId="22" r:id="rId22"/>
+    <sheet name="Body" sheetId="25" r:id="rId21"/>
+    <sheet name="Salary" sheetId="3" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -884,24 +884,6 @@
     <t>изоляция</t>
   </si>
   <si>
-    <t>Рышкановка</t>
-  </si>
-  <si>
-    <t>Роз</t>
-  </si>
-  <si>
-    <t>Буюканы</t>
-  </si>
-  <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>Комнты</t>
-  </si>
-  <si>
-    <t>Неага</t>
-  </si>
-  <si>
     <t>EC12D1564402</t>
   </si>
   <si>
@@ -981,6 +963,24 @@
   </si>
   <si>
     <t>LED</t>
+  </si>
+  <si>
+    <t>5 august</t>
+  </si>
+  <si>
+    <t>Eur</t>
+  </si>
+  <si>
+    <t>15 sept</t>
+  </si>
+  <si>
+    <t>Cris</t>
+  </si>
+  <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>https://jlc3dp.com/3d-printing-quote?from=button</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1883,6 +1883,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6471,71 +6472,71 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="107" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C1" s="107" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>300</v>
-      </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="108" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>301</v>
-      </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6747,7 +6748,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N7" t="s">
         <v>180</v>
@@ -6791,7 +6792,7 @@
     </row>
     <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="106" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3E925-B508-4DA5-8DA9-AB07648B8FEF}">
   <dimension ref="N3:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
@@ -6823,7 +6824,7 @@
     </row>
     <row r="61" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T61" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="U61">
         <v>48</v>
@@ -6836,25 +6837,59 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5DD149-693C-4ABC-8611-9988308C4466}">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{8A775CA1-D4D2-4DBA-BD21-5047871A06D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748AC87-A697-4E37-B1A5-DA8A80AB8301}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>74</v>
       </c>
@@ -6868,16 +6903,49 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="109">
+        <v>45905</v>
+      </c>
+      <c r="I8">
+        <v>3000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="6">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" s="109">
+        <v>45945</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -6888,7 +6956,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -6899,7 +6967,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -6910,14 +6978,14 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="89" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="90"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>84</v>
       </c>
@@ -6939,110 +7007,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49654992-4A93-4408-80F5-251C0D5EC260}">
-  <dimension ref="B1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>380</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G4" si="0">F2/E2</f>
-        <v>8.6363636363636367</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>400</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>380</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>10.555555555555555</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>450</v>
-      </c>
-      <c r="G5">
-        <f>F5/E5</f>
-        <v>7.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{0891B63B-C0F6-46C6-B00B-48A26EBCC3F9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7067,22 +7031,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="104" t="s">
         <v>115</v>
       </c>
       <c r="C1" s="104" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G1" s="105" t="s">
         <v>120</v>
@@ -7090,10 +7054,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C2" s="101">
         <v>15</v>
@@ -7105,7 +7069,7 @@
         <v>180</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G2" s="102">
         <v>2</v>
@@ -7116,7 +7080,7 @@
         <v>173</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C3" s="97">
         <v>32</v>
@@ -7125,7 +7089,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F3" s="96" t="s">
         <v>174</v>
